--- a/Mifos Automation Excels/Client/4603-Holiday-on-15-Jan-2013-Reschedule-repayment-on-20-Jan-2013-DISBon01JAN-REPAY15JAN-THROUGH-COLLECTION-SHEET.xlsx
+++ b/Mifos Automation Excels/Client/4603-Holiday-on-15-Jan-2013-Reschedule-repayment-on-20-Jan-2013-DISBon01JAN-REPAY15JAN-THROUGH-COLLECTION-SHEET.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>error</t>
   </si>
   <si>
-    <t>Repayment date should not be a holiday.</t>
-  </si>
-  <si>
     <t>centers4603</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>WED</t>
+  </si>
+  <si>
+    <t>Selected calendar date is not a valid recurrence date</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
         <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -845,7 +845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -858,7 +860,7 @@
         <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -939,7 +941,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -969,7 +971,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1858,7 +1860,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1895,7 +1897,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1903,7 +1905,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1914,12 +1916,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
